--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E110B52-C2AF-4424-9A02-FEE264112EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78383EB1-C96D-42C4-992D-B1EA41E83DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A813EE68-CAAC-D168-2AAD-98259440B2D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AA190D-05D0-A7CB-5C21-A2067734CB24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAE0F65-AC96-0E1E-E297-AC408B7A524F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00C8684-9A2A-DE0E-D789-B28830B73859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05F1FF1-B16A-CAEF-68F4-2F39EE2462E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71232206-C5A2-B1C4-FD01-EF4440D29EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68E175-A271-4C24-98AE-CE04996A5D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4194926-BAEB-40EA-A981-EDB4A747EBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4194926-BAEB-40EA-A981-EDB4A747EBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E856F-78DC-4CCB-AA20-25FDBEBCE0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E856F-78DC-4CCB-AA20-25FDBEBCE0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0198B8E-B374-46C2-BDE8-8D38D2D513D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0198B8E-B374-46C2-BDE8-8D38D2D513D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C85987-4EFF-42F7-B9F9-0B07D456C121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
     <t>R10EUROPE</t>
   </si>
   <si>
-    <t xml:space="preserve"> TTF gas hub, major pellet importer </t>
+    <t>TTF gas hub, imported coal via ARA</t>
   </si>
 </sst>
 </file>
